--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1165,7 +1165,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1 New</t>
+          <t>2 new</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -544,7 +543,6 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -572,7 +570,6 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -600,7 +597,6 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -628,7 +624,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -656,7 +651,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -684,7 +678,6 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -712,7 +705,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -740,7 +732,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -768,7 +759,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -796,7 +786,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -824,7 +813,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -852,7 +840,6 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -880,7 +867,6 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -908,7 +894,6 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -936,7 +921,6 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -964,7 +948,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -992,7 +975,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1020,7 +1002,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1048,7 +1029,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1076,7 +1056,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1104,7 +1083,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1132,7 +1110,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1160,19 +1137,20 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>2 new</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>1 New</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -543,6 +544,7 @@
           <t>minimal</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -570,6 +572,7 @@
           <t>minimal</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -597,6 +600,7 @@
           <t>minimal</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -624,6 +628,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -651,6 +656,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -678,6 +684,7 @@
           <t>minimal</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -705,6 +712,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -732,6 +740,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -759,6 +768,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -786,6 +796,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -813,6 +824,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -840,6 +852,7 @@
           <t>minimal</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -867,6 +880,7 @@
           <t>minimal</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -894,6 +908,7 @@
           <t>minimal</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -921,6 +936,7 @@
           <t>minimal</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -948,6 +964,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -975,6 +992,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1002,6 +1020,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1029,6 +1048,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1056,6 +1076,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1083,6 +1104,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1110,6 +1132,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1137,20 +1160,19 @@
           <t>minimal</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2 new</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1 New</t>
-        </is>
-      </c>
+          <t>1 New2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,18 +1162,6 @@
       </c>
       <c r="F26" t="inlineStr"/>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1 New2</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
